--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_03-08_end.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_03-08_end.xlsx
@@ -43,7 +43,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Skullshatterer" collapses once more, but not a single person is smiling. Ch'en has no words of comfort for Amiya, but shares some of her seldom-spoken sentiments.
+    <t xml:space="preserve">'Skullshatterer' collapses once more, but not a single person is smiling. Ch'en has no words of comfort for Amiya, but shares some of her seldom-spoken sentiments.
 </t>
   </si>
   <si>
